--- a/3_2/cfrp1/3_2_cfrp1_SS.xlsx
+++ b/3_2/cfrp1/3_2_cfrp1_SS.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="c1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="まとめ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="まとめ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="c1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -51,6 +51,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,74 +67,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -717,6 +650,55 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sheet_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tensile_strength</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>young's_modulus</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>43.713</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4814.919727891155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -757,13 +739,13 @@
         <v>0.015</v>
       </c>
       <c r="B2" t="n">
-        <v>50.6025</v>
+        <v>50.5566</v>
       </c>
       <c r="C2" t="n">
         <v>0.00015</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7228928571428571</v>
+        <v>0.7222371428571429</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -771,7 +753,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>43.73171428571428</v>
+        <v>43.713</v>
       </c>
     </row>
     <row r="3">
@@ -779,13 +761,13 @@
         <v>0.03</v>
       </c>
       <c r="B3" t="n">
-        <v>101.205</v>
+        <v>101.113</v>
       </c>
       <c r="C3" t="n">
         <v>0.0003</v>
       </c>
       <c r="D3" t="n">
-        <v>1.445785714285714</v>
+        <v>1.444471428571429</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -793,7 +775,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4819.282993197278</v>
+        <v>4814.919727891155</v>
       </c>
     </row>
     <row r="4">
@@ -801,13 +783,13 @@
         <v>0.045</v>
       </c>
       <c r="B4" t="n">
-        <v>151.807</v>
+        <v>151.67</v>
       </c>
       <c r="C4" t="n">
         <v>0.0004499999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>2.168671428571428</v>
+        <v>2.166714285714285</v>
       </c>
     </row>
     <row r="5">
@@ -815,13 +797,13 @@
         <v>0.06</v>
       </c>
       <c r="B5" t="n">
-        <v>202.41</v>
+        <v>202.226</v>
       </c>
       <c r="C5" t="n">
         <v>0.0005999999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>2.891571428571428</v>
+        <v>2.888942857142857</v>
       </c>
     </row>
     <row r="6">
@@ -829,13 +811,13 @@
         <v>0.075</v>
       </c>
       <c r="B6" t="n">
-        <v>253.012</v>
+        <v>252.783</v>
       </c>
       <c r="C6" t="n">
         <v>0.0007499999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>3.614457142857143</v>
+        <v>3.611185714285714</v>
       </c>
     </row>
     <row r="7">
@@ -843,13 +825,13 @@
         <v>0.09</v>
       </c>
       <c r="B7" t="n">
-        <v>303.615</v>
+        <v>303.34</v>
       </c>
       <c r="C7" t="n">
         <v>0.0008999999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>4.337357142857143</v>
+        <v>4.333428571428571</v>
       </c>
     </row>
     <row r="8">
@@ -857,13 +839,13 @@
         <v>0.105</v>
       </c>
       <c r="B8" t="n">
-        <v>354.217</v>
+        <v>353.896</v>
       </c>
       <c r="C8" t="n">
         <v>0.00105</v>
       </c>
       <c r="D8" t="n">
-        <v>5.060242857142857</v>
+        <v>5.055657142857143</v>
       </c>
     </row>
     <row r="9">
@@ -871,13 +853,13 @@
         <v>0.12</v>
       </c>
       <c r="B9" t="n">
-        <v>404.82</v>
+        <v>404.453</v>
       </c>
       <c r="C9" t="n">
         <v>0.0012</v>
       </c>
       <c r="D9" t="n">
-        <v>5.783142857142857</v>
+        <v>5.7779</v>
       </c>
     </row>
     <row r="10">
@@ -885,13 +867,13 @@
         <v>0.135</v>
       </c>
       <c r="B10" t="n">
-        <v>455.422</v>
+        <v>455.009</v>
       </c>
       <c r="C10" t="n">
         <v>0.00135</v>
       </c>
       <c r="D10" t="n">
-        <v>6.506028571428572</v>
+        <v>6.500128571428571</v>
       </c>
     </row>
     <row r="11">
@@ -899,13 +881,13 @@
         <v>0.15</v>
       </c>
       <c r="B11" t="n">
-        <v>506.025</v>
+        <v>505.566</v>
       </c>
       <c r="C11" t="n">
         <v>0.0015</v>
       </c>
       <c r="D11" t="n">
-        <v>7.228928571428571</v>
+        <v>7.222371428571428</v>
       </c>
     </row>
     <row r="12">
@@ -913,13 +895,13 @@
         <v>0.165</v>
       </c>
       <c r="B12" t="n">
-        <v>556.627</v>
+        <v>556.122</v>
       </c>
       <c r="C12" t="n">
         <v>0.00165</v>
       </c>
       <c r="D12" t="n">
-        <v>7.951814285714285</v>
+        <v>7.944599999999999</v>
       </c>
     </row>
     <row r="13">
@@ -927,13 +909,13 @@
         <v>0.18</v>
       </c>
       <c r="B13" t="n">
-        <v>607.229</v>
+        <v>606.679</v>
       </c>
       <c r="C13" t="n">
         <v>0.0018</v>
       </c>
       <c r="D13" t="n">
-        <v>8.674700000000001</v>
+        <v>8.666842857142857</v>
       </c>
     </row>
     <row r="14">
@@ -941,13 +923,13 @@
         <v>0.195</v>
       </c>
       <c r="B14" t="n">
-        <v>657.831</v>
+        <v>657.236</v>
       </c>
       <c r="C14" t="n">
         <v>0.00195</v>
       </c>
       <c r="D14" t="n">
-        <v>9.397585714285714</v>
+        <v>9.389085714285715</v>
       </c>
     </row>
     <row r="15">
@@ -955,13 +937,13 @@
         <v>0.21</v>
       </c>
       <c r="B15" t="n">
-        <v>708.432</v>
+        <v>707.792</v>
       </c>
       <c r="C15" t="n">
         <v>0.0021</v>
       </c>
       <c r="D15" t="n">
-        <v>10.12045714285714</v>
+        <v>10.11131428571429</v>
       </c>
     </row>
     <row r="16">
@@ -969,13 +951,13 @@
         <v>0.225</v>
       </c>
       <c r="B16" t="n">
-        <v>759.033</v>
+        <v>758.349</v>
       </c>
       <c r="C16" t="n">
         <v>0.00225</v>
       </c>
       <c r="D16" t="n">
-        <v>10.84332857142857</v>
+        <v>10.83355714285714</v>
       </c>
     </row>
     <row r="17">
@@ -983,13 +965,13 @@
         <v>0.24</v>
       </c>
       <c r="B17" t="n">
-        <v>809.633</v>
+        <v>808.905</v>
       </c>
       <c r="C17" t="n">
         <v>0.0024</v>
       </c>
       <c r="D17" t="n">
-        <v>11.56618571428571</v>
+        <v>11.55578571428571</v>
       </c>
     </row>
     <row r="18">
@@ -997,13 +979,13 @@
         <v>0.255</v>
       </c>
       <c r="B18" t="n">
-        <v>860.2329999999999</v>
+        <v>859.461</v>
       </c>
       <c r="C18" t="n">
         <v>0.00255</v>
       </c>
       <c r="D18" t="n">
-        <v>12.28904285714286</v>
+        <v>12.27801428571429</v>
       </c>
     </row>
     <row r="19">
@@ -1011,13 +993,13 @@
         <v>0.27</v>
       </c>
       <c r="B19" t="n">
-        <v>910.831</v>
+        <v>910.016</v>
       </c>
       <c r="C19" t="n">
         <v>0.0027</v>
       </c>
       <c r="D19" t="n">
-        <v>13.01187142857143</v>
+        <v>13.00022857142857</v>
       </c>
     </row>
     <row r="20">
@@ -1025,13 +1007,13 @@
         <v>0.285</v>
       </c>
       <c r="B20" t="n">
-        <v>961.426</v>
+        <v>960.5700000000001</v>
       </c>
       <c r="C20" t="n">
         <v>0.00285</v>
       </c>
       <c r="D20" t="n">
-        <v>13.73465714285714</v>
+        <v>13.72242857142857</v>
       </c>
     </row>
     <row r="21">
@@ -1039,13 +1021,13 @@
         <v>0.3</v>
       </c>
       <c r="B21" t="n">
-        <v>1012.02</v>
+        <v>1011.12</v>
       </c>
       <c r="C21" t="n">
         <v>0.003</v>
       </c>
       <c r="D21" t="n">
-        <v>14.45742857142857</v>
+        <v>14.44457142857143</v>
       </c>
     </row>
     <row r="22">
@@ -1053,13 +1035,13 @@
         <v>0.315</v>
       </c>
       <c r="B22" t="n">
-        <v>1062.61</v>
+        <v>1061.67</v>
       </c>
       <c r="C22" t="n">
         <v>0.00315</v>
       </c>
       <c r="D22" t="n">
-        <v>15.18014285714286</v>
+        <v>15.16671428571429</v>
       </c>
     </row>
     <row r="23">
@@ -1067,13 +1049,13 @@
         <v>0.33</v>
       </c>
       <c r="B23" t="n">
-        <v>1113.19</v>
+        <v>1112.22</v>
       </c>
       <c r="C23" t="n">
         <v>0.0033</v>
       </c>
       <c r="D23" t="n">
-        <v>15.90271428571429</v>
+        <v>15.88885714285714</v>
       </c>
     </row>
     <row r="24">
@@ -1081,13 +1063,13 @@
         <v>0.345</v>
       </c>
       <c r="B24" t="n">
-        <v>1163.76</v>
+        <v>1162.77</v>
       </c>
       <c r="C24" t="n">
         <v>0.00345</v>
       </c>
       <c r="D24" t="n">
-        <v>16.62514285714286</v>
+        <v>16.611</v>
       </c>
     </row>
     <row r="25">
@@ -1095,13 +1077,13 @@
         <v>0.36</v>
       </c>
       <c r="B25" t="n">
-        <v>1214.34</v>
+        <v>1213.32</v>
       </c>
       <c r="C25" t="n">
         <v>0.003599999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>17.34771428571429</v>
+        <v>17.33314285714286</v>
       </c>
     </row>
     <row r="26">
@@ -1109,13 +1091,13 @@
         <v>0.375</v>
       </c>
       <c r="B26" t="n">
-        <v>1264.91</v>
+        <v>1263.87</v>
       </c>
       <c r="C26" t="n">
         <v>0.00375</v>
       </c>
       <c r="D26" t="n">
-        <v>18.07014285714286</v>
+        <v>18.05528571428571</v>
       </c>
     </row>
     <row r="27">
@@ -1123,13 +1105,13 @@
         <v>0.39</v>
       </c>
       <c r="B27" t="n">
-        <v>1315.48</v>
+        <v>1314.42</v>
       </c>
       <c r="C27" t="n">
         <v>0.0039</v>
       </c>
       <c r="D27" t="n">
-        <v>18.79257142857143</v>
+        <v>18.77742857142857</v>
       </c>
     </row>
     <row r="28">
@@ -1137,13 +1119,13 @@
         <v>0.405</v>
       </c>
       <c r="B28" t="n">
-        <v>1366.05</v>
+        <v>1364.96</v>
       </c>
       <c r="C28" t="n">
         <v>0.00405</v>
       </c>
       <c r="D28" t="n">
-        <v>19.515</v>
+        <v>19.49942857142857</v>
       </c>
     </row>
     <row r="29">
@@ -1151,13 +1133,13 @@
         <v>0.42</v>
       </c>
       <c r="B29" t="n">
-        <v>1416.61</v>
+        <v>1415.5</v>
       </c>
       <c r="C29" t="n">
         <v>0.0042</v>
       </c>
       <c r="D29" t="n">
-        <v>20.23728571428571</v>
+        <v>20.22142857142857</v>
       </c>
     </row>
     <row r="30">
@@ -1165,13 +1147,13 @@
         <v>0.435</v>
       </c>
       <c r="B30" t="n">
-        <v>1467.17</v>
+        <v>1466.04</v>
       </c>
       <c r="C30" t="n">
         <v>0.00435</v>
       </c>
       <c r="D30" t="n">
-        <v>20.95957142857143</v>
+        <v>20.94342857142857</v>
       </c>
     </row>
     <row r="31">
@@ -1179,13 +1161,13 @@
         <v>0.45</v>
       </c>
       <c r="B31" t="n">
-        <v>1517.73</v>
+        <v>1516.58</v>
       </c>
       <c r="C31" t="n">
         <v>0.004500000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>21.68185714285714</v>
+        <v>21.66542857142857</v>
       </c>
     </row>
     <row r="32">
@@ -1193,13 +1175,13 @@
         <v>0.465</v>
       </c>
       <c r="B32" t="n">
-        <v>1568.28</v>
+        <v>1567.12</v>
       </c>
       <c r="C32" t="n">
         <v>0.00465</v>
       </c>
       <c r="D32" t="n">
-        <v>22.404</v>
+        <v>22.38742857142857</v>
       </c>
     </row>
     <row r="33">
@@ -1207,13 +1189,13 @@
         <v>0.48</v>
       </c>
       <c r="B33" t="n">
-        <v>1618.82</v>
+        <v>1617.65</v>
       </c>
       <c r="C33" t="n">
         <v>0.0048</v>
       </c>
       <c r="D33" t="n">
-        <v>23.126</v>
+        <v>23.10928571428571</v>
       </c>
     </row>
     <row r="34">
@@ -1221,13 +1203,13 @@
         <v>0.495</v>
       </c>
       <c r="B34" t="n">
-        <v>1669.36</v>
+        <v>1668.17</v>
       </c>
       <c r="C34" t="n">
         <v>0.00495</v>
       </c>
       <c r="D34" t="n">
-        <v>23.848</v>
+        <v>23.831</v>
       </c>
     </row>
     <row r="35">
@@ -1235,13 +1217,13 @@
         <v>0.51</v>
       </c>
       <c r="B35" t="n">
-        <v>1719.89</v>
+        <v>1718.68</v>
       </c>
       <c r="C35" t="n">
         <v>0.0051</v>
       </c>
       <c r="D35" t="n">
-        <v>24.56985714285715</v>
+        <v>24.55257142857143</v>
       </c>
     </row>
     <row r="36">
@@ -1249,13 +1231,13 @@
         <v>0.525</v>
       </c>
       <c r="B36" t="n">
-        <v>1770.4</v>
+        <v>1769.19</v>
       </c>
       <c r="C36" t="n">
         <v>0.00525</v>
       </c>
       <c r="D36" t="n">
-        <v>25.29142857142857</v>
+        <v>25.27414285714286</v>
       </c>
     </row>
     <row r="37">
@@ -1263,13 +1245,13 @@
         <v>0.54</v>
       </c>
       <c r="B37" t="n">
-        <v>1820.9</v>
+        <v>1819.69</v>
       </c>
       <c r="C37" t="n">
         <v>0.005399999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>26.01285714285714</v>
+        <v>25.99557142857143</v>
       </c>
     </row>
     <row r="38">
@@ -1277,13 +1259,13 @@
         <v>0.555</v>
       </c>
       <c r="B38" t="n">
-        <v>1871.34</v>
+        <v>1870.17</v>
       </c>
       <c r="C38" t="n">
         <v>0.00555</v>
       </c>
       <c r="D38" t="n">
-        <v>26.73342857142857</v>
+        <v>26.71671428571429</v>
       </c>
     </row>
     <row r="39">
@@ -1291,13 +1273,13 @@
         <v>0.57</v>
       </c>
       <c r="B39" t="n">
-        <v>1921.33</v>
+        <v>1920.16</v>
       </c>
       <c r="C39" t="n">
         <v>0.005699999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>27.44757142857143</v>
+        <v>27.43085714285714</v>
       </c>
     </row>
     <row r="40">
@@ -1305,13 +1287,13 @@
         <v>0.585</v>
       </c>
       <c r="B40" t="n">
-        <v>1970.95</v>
+        <v>1969.76</v>
       </c>
       <c r="C40" t="n">
         <v>0.00585</v>
       </c>
       <c r="D40" t="n">
-        <v>28.15642857142857</v>
+        <v>28.13942857142857</v>
       </c>
     </row>
     <row r="41">
@@ -1319,13 +1301,13 @@
         <v>0.6</v>
       </c>
       <c r="B41" t="n">
-        <v>2020.54</v>
+        <v>2019.34</v>
       </c>
       <c r="C41" t="n">
         <v>0.005999999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>28.86485714285714</v>
+        <v>28.84771428571429</v>
       </c>
     </row>
     <row r="42">
@@ -1333,13 +1315,13 @@
         <v>0.615</v>
       </c>
       <c r="B42" t="n">
-        <v>2070.13</v>
+        <v>2068.91</v>
       </c>
       <c r="C42" t="n">
         <v>0.006149999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>29.57328571428572</v>
+        <v>29.55585714285714</v>
       </c>
     </row>
     <row r="43">
@@ -1347,13 +1329,13 @@
         <v>0.63</v>
       </c>
       <c r="B43" t="n">
-        <v>2119.71</v>
+        <v>2118.48</v>
       </c>
       <c r="C43" t="n">
         <v>0.0063</v>
       </c>
       <c r="D43" t="n">
-        <v>30.28157142857143</v>
+        <v>30.264</v>
       </c>
     </row>
     <row r="44">
@@ -1361,13 +1343,13 @@
         <v>0.645</v>
       </c>
       <c r="B44" t="n">
-        <v>2169.29</v>
+        <v>2168.04</v>
       </c>
       <c r="C44" t="n">
         <v>0.00645</v>
       </c>
       <c r="D44" t="n">
-        <v>30.98985714285714</v>
+        <v>30.972</v>
       </c>
     </row>
     <row r="45">
@@ -1375,13 +1357,13 @@
         <v>0.66</v>
       </c>
       <c r="B45" t="n">
-        <v>2218.86</v>
+        <v>2217.61</v>
       </c>
       <c r="C45" t="n">
         <v>0.0066</v>
       </c>
       <c r="D45" t="n">
-        <v>31.698</v>
+        <v>31.68014285714286</v>
       </c>
     </row>
     <row r="46">
@@ -1389,13 +1371,13 @@
         <v>0.675</v>
       </c>
       <c r="B46" t="n">
-        <v>2268.43</v>
+        <v>2267.17</v>
       </c>
       <c r="C46" t="n">
         <v>0.00675</v>
       </c>
       <c r="D46" t="n">
-        <v>32.40614285714285</v>
+        <v>32.38814285714286</v>
       </c>
     </row>
     <row r="47">
@@ -1403,13 +1385,13 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>2317.99</v>
+        <v>2316.73</v>
       </c>
       <c r="C47" t="n">
         <v>0.006899999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>33.11414285714285</v>
+        <v>33.09614285714286</v>
       </c>
     </row>
     <row r="48">
@@ -1417,13 +1399,13 @@
         <v>0.705</v>
       </c>
       <c r="B48" t="n">
-        <v>2367.56</v>
+        <v>2366.29</v>
       </c>
       <c r="C48" t="n">
         <v>0.00705</v>
       </c>
       <c r="D48" t="n">
-        <v>33.82228571428571</v>
+        <v>33.80414285714286</v>
       </c>
     </row>
     <row r="49">
@@ -1431,13 +1413,13 @@
         <v>0.72</v>
       </c>
       <c r="B49" t="n">
-        <v>2417.12</v>
+        <v>2415.85</v>
       </c>
       <c r="C49" t="n">
         <v>0.007199999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>34.53028571428571</v>
+        <v>34.51214285714286</v>
       </c>
     </row>
     <row r="50">
@@ -1445,13 +1427,13 @@
         <v>0.735</v>
       </c>
       <c r="B50" t="n">
-        <v>2466.67</v>
+        <v>2465.4</v>
       </c>
       <c r="C50" t="n">
         <v>0.00735</v>
       </c>
       <c r="D50" t="n">
-        <v>35.23814285714286</v>
+        <v>35.22</v>
       </c>
     </row>
     <row r="51">
@@ -1459,13 +1441,13 @@
         <v>0.75</v>
       </c>
       <c r="B51" t="n">
-        <v>2516.23</v>
+        <v>2514.96</v>
       </c>
       <c r="C51" t="n">
         <v>0.0075</v>
       </c>
       <c r="D51" t="n">
-        <v>35.94614285714286</v>
+        <v>35.928</v>
       </c>
     </row>
     <row r="52">
@@ -1473,13 +1455,13 @@
         <v>0.765</v>
       </c>
       <c r="B52" t="n">
-        <v>2565.78</v>
+        <v>2564.51</v>
       </c>
       <c r="C52" t="n">
         <v>0.007650000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>36.654</v>
+        <v>36.63585714285715</v>
       </c>
     </row>
     <row r="53">
@@ -1487,13 +1469,13 @@
         <v>0.78</v>
       </c>
       <c r="B53" t="n">
-        <v>2615.33</v>
+        <v>2614.06</v>
       </c>
       <c r="C53" t="n">
         <v>0.007800000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>37.36185714285714</v>
+        <v>37.34371428571428</v>
       </c>
     </row>
     <row r="54">
@@ -1501,13 +1483,13 @@
         <v>0.795</v>
       </c>
       <c r="B54" t="n">
-        <v>2664.88</v>
+        <v>2663.61</v>
       </c>
       <c r="C54" t="n">
         <v>0.00795</v>
       </c>
       <c r="D54" t="n">
-        <v>38.06971428571429</v>
+        <v>38.05157142857143</v>
       </c>
     </row>
     <row r="55">
@@ -1515,13 +1497,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B55" t="n">
-        <v>2714.43</v>
+        <v>2713.15</v>
       </c>
       <c r="C55" t="n">
         <v>0.0081</v>
       </c>
       <c r="D55" t="n">
-        <v>38.77757142857143</v>
+        <v>38.75928571428572</v>
       </c>
     </row>
     <row r="56">
@@ -1529,13 +1511,13 @@
         <v>0.825</v>
       </c>
       <c r="B56" t="n">
-        <v>2763.98</v>
+        <v>2762.69</v>
       </c>
       <c r="C56" t="n">
         <v>0.008249999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>39.48542857142857</v>
+        <v>39.467</v>
       </c>
     </row>
     <row r="57">
@@ -1543,13 +1525,13 @@
         <v>0.84</v>
       </c>
       <c r="B57" t="n">
-        <v>2813.52</v>
+        <v>2812.24</v>
       </c>
       <c r="C57" t="n">
         <v>0.008399999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>40.19314285714286</v>
+        <v>40.17485714285714</v>
       </c>
     </row>
     <row r="58">
@@ -1557,13 +1539,13 @@
         <v>0.855</v>
       </c>
       <c r="B58" t="n">
-        <v>2863.06</v>
+        <v>2861.78</v>
       </c>
       <c r="C58" t="n">
         <v>0.008549999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>40.90085714285714</v>
+        <v>40.88257142857143</v>
       </c>
     </row>
     <row r="59">
@@ -1571,13 +1553,13 @@
         <v>0.87</v>
       </c>
       <c r="B59" t="n">
-        <v>2912.61</v>
+        <v>2911.31</v>
       </c>
       <c r="C59" t="n">
         <v>0.008699999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>41.60871428571429</v>
+        <v>41.59014285714286</v>
       </c>
     </row>
     <row r="60">
@@ -1585,13 +1567,13 @@
         <v>0.885</v>
       </c>
       <c r="B60" t="n">
-        <v>2962.14</v>
+        <v>2960.85</v>
       </c>
       <c r="C60" t="n">
         <v>0.00885</v>
       </c>
       <c r="D60" t="n">
-        <v>42.31628571428571</v>
+        <v>42.29785714285714</v>
       </c>
     </row>
     <row r="61">
@@ -1599,13 +1581,13 @@
         <v>0.9</v>
       </c>
       <c r="B61" t="n">
-        <v>3011.68</v>
+        <v>3010.38</v>
       </c>
       <c r="C61" t="n">
         <v>0.009000000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>43.024</v>
+        <v>43.00542857142857</v>
       </c>
     </row>
     <row r="62">
@@ -1613,41 +1595,41 @@
         <v>0.915</v>
       </c>
       <c r="B62" t="n">
-        <v>3061.22</v>
+        <v>3059.91</v>
       </c>
       <c r="C62" t="n">
         <v>0.00915</v>
       </c>
       <c r="D62" t="n">
-        <v>43.73171428571428</v>
+        <v>43.713</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9225</v>
+        <v>0.92175</v>
       </c>
       <c r="B63" t="n">
-        <v>3007.82</v>
+        <v>2996.08</v>
       </c>
       <c r="C63" t="n">
-        <v>0.009225000000000001</v>
+        <v>0.009217499999999998</v>
       </c>
       <c r="D63" t="n">
-        <v>42.96885714285715</v>
+        <v>42.80114285714286</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.93</v>
+        <v>0.9285</v>
       </c>
       <c r="B64" t="n">
-        <v>2724.63</v>
+        <v>2718.65</v>
       </c>
       <c r="C64" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.009285</v>
       </c>
       <c r="D64" t="n">
-        <v>38.92328571428572</v>
+        <v>38.83785714285715</v>
       </c>
     </row>
     <row r="65">
@@ -1655,66 +1637,17 @@
         <v>1.5</v>
       </c>
       <c r="B65" t="n">
-        <v>2727.73</v>
+        <v>2722.61</v>
       </c>
       <c r="C65" t="n">
         <v>0.015</v>
       </c>
       <c r="D65" t="n">
-        <v>38.96757142857143</v>
+        <v>38.89442857142857</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sheet_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>tensile_strength</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>young's_modulus</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>43.73171428571428</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4819.282993197278</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>